--- a/DATOS HR y CONTRATOS.xlsx
+++ b/DATOS HR y CONTRATOS.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="J6:J22"/>
+  <dimension ref="C6:CU22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
@@ -399,8 +399,280 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="6">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>PPA</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>450</v>
+      </c>
+      <c r="E6" t="n">
+        <v>226000</v>
+      </c>
+      <c r="H6" t="n">
+        <v>800</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8601.299999999999</v>
+      </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>250</v>
+      </c>
+      <c r="K6" t="n">
+        <v>9054</v>
+      </c>
+      <c r="L6" t="n">
+        <v>350</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.07435792982578278</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.1162115752696991</v>
+      </c>
+      <c r="O6" t="n">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.6148200125425</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U6" t="n">
+        <v>39994.98731689451</v>
+      </c>
+      <c r="V6" t="n">
+        <v>39790.93125915524</v>
+      </c>
+      <c r="W6" t="n">
+        <v>39586.87520141598</v>
+      </c>
+      <c r="X6" t="n">
+        <v>39382.81914367673</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>39178.76308593747</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>38974.70702819822</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>38770.65097045895</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>38566.59491271969</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>38362.53885498043</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>38158.48279724117</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>37954.42673950191</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>37750.37068176266</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>37546.31462402341</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>37342.25856628414</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>37138.20250854488</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>7606.159047745719</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>7606.159047745719</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>7735.463751557395</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>7866.96663533387</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>8000.705068134544</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>8136.717054292832</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>8275.041244215809</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>8415.716945367478</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>8558.784133438723</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>8704.283463707183</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8852.256282590202</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>9002.744639394235</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>9155.791298263935</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>9311.439750334423</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>9469.734226090108</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>47195.57838087183</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>51472.33658071669</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>89404.42635820748</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>156258.0511738988</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>233975.5803811896</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>311737.7104269752</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>435233.085385339</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>424148.8863356313</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>313682.9592735068</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>211973.0077948838</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>71615.4557950329</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>53286.37145458867</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>21716.0523887245</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>24289.67980251323</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>41137.20061643042</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>58690.24407968396</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>71841.47769007101</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>70495.1048492582</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>73636.48705679823</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>70990.70801197062</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>66117.2050634419</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>57360.9196201873</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>30556.67752504543</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>22677.38337320964</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>21716.0523886245</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>24289.67980251323</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>41137.20061643042</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>58690.24407968396</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>71841.47769007101</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>70495.1048492582</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>73636.48705679823</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>70990.70801197062</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>66117.2050634419</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>57360.9196201873</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>30556.67752504543</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>22677.38337320964</v>
       </c>
     </row>
     <row r="10">
